--- a/target/test-classes/testdata/batch17excel.xlsx
+++ b/target/test-classes/testdata/batch17excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>firstName</t>
   </si>
@@ -49,31 +49,19 @@
     <t>C:\Users\sohai\OneDrive\Desktop\batch17image.jpg</t>
   </si>
   <si>
-    <t>nafi123</t>
+    <t>rayueti12353</t>
   </si>
   <si>
     <t>Hum@nhrm123</t>
   </si>
   <si>
-    <t>muhayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ms </t>
-  </si>
-  <si>
-    <t>aman</t>
-  </si>
-  <si>
-    <t>muha123</t>
-  </si>
-  <si>
     <t>raihana</t>
   </si>
   <si>
     <t>adrian</t>
   </si>
   <si>
-    <t>rai123</t>
+    <t>msraihan321</t>
   </si>
 </sst>
 </file>
@@ -1232,13 +1220,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="12.2222222222222" customWidth="1"/>
@@ -1299,44 +1287,21 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1346,8 +1311,6 @@
     <hyperlink ref="G2" r:id="rId1" display="Hum@nhrm123"/>
     <hyperlink ref="F3" r:id="rId1" display="Hum@nhrm123"/>
     <hyperlink ref="G3" r:id="rId1" display="Hum@nhrm123"/>
-    <hyperlink ref="F4" r:id="rId1" display="Hum@nhrm123"/>
-    <hyperlink ref="G4" r:id="rId1" display="Hum@nhrm123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
